--- a/data/pca/factorExposure/factorExposure_2016-07-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01181655590613635</v>
+        <v>0.01335792038238217</v>
       </c>
       <c r="C2">
-        <v>0.04767941455106649</v>
+        <v>0.04144313128825212</v>
       </c>
       <c r="D2">
-        <v>-0.03323197226281312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06217052141762668</v>
+      </c>
+      <c r="E2">
+        <v>-0.06939812032725637</v>
+      </c>
+      <c r="F2">
+        <v>0.06260776058124039</v>
+      </c>
+      <c r="G2">
+        <v>0.04030352394584007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04649193625597982</v>
+        <v>0.0297055798670723</v>
       </c>
       <c r="C3">
-        <v>0.1106713448610248</v>
+        <v>0.07934671297338219</v>
       </c>
       <c r="D3">
-        <v>-0.1003197568611559</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08947102937114162</v>
+      </c>
+      <c r="E3">
+        <v>-0.06766492815615181</v>
+      </c>
+      <c r="F3">
+        <v>-0.0124681847806772</v>
+      </c>
+      <c r="G3">
+        <v>-0.03585283296823295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06280025664755057</v>
+        <v>0.0585982174093827</v>
       </c>
       <c r="C4">
-        <v>0.05696645635662603</v>
+        <v>0.06437965722207199</v>
       </c>
       <c r="D4">
-        <v>-0.03247199486386736</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06071810988487102</v>
+      </c>
+      <c r="E4">
+        <v>-0.07099708704708396</v>
+      </c>
+      <c r="F4">
+        <v>0.07686861766506339</v>
+      </c>
+      <c r="G4">
+        <v>-0.03697077420876103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0402194003380406</v>
+        <v>0.03576815864747212</v>
       </c>
       <c r="C6">
-        <v>0.03840972686899504</v>
+        <v>0.03207498732344838</v>
       </c>
       <c r="D6">
-        <v>-0.02956987938488346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06404455492568241</v>
+      </c>
+      <c r="E6">
+        <v>-0.07381752960744349</v>
+      </c>
+      <c r="F6">
+        <v>0.05475575478875551</v>
+      </c>
+      <c r="G6">
+        <v>-0.02201888178049185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02170012776463109</v>
+        <v>0.01852386139343029</v>
       </c>
       <c r="C7">
-        <v>0.04330601079651178</v>
+        <v>0.03829353974933364</v>
       </c>
       <c r="D7">
-        <v>0.005948360039991968</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03881400244019742</v>
+      </c>
+      <c r="E7">
+        <v>-0.04869703382616229</v>
+      </c>
+      <c r="F7">
+        <v>0.09806789546048852</v>
+      </c>
+      <c r="G7">
+        <v>-0.008275552916157515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.004242340275007509</v>
+        <v>0.003530042125161445</v>
       </c>
       <c r="C8">
-        <v>0.02866940600272423</v>
+        <v>0.02878108132062314</v>
       </c>
       <c r="D8">
-        <v>-0.02287067362476219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0316303386613789</v>
+      </c>
+      <c r="E8">
+        <v>-0.051050516378817</v>
+      </c>
+      <c r="F8">
+        <v>0.03356303686540432</v>
+      </c>
+      <c r="G8">
+        <v>-0.007576701619462657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03518850329584022</v>
+        <v>0.03745182609875029</v>
       </c>
       <c r="C9">
-        <v>0.04390474899370304</v>
+        <v>0.05162198788210479</v>
       </c>
       <c r="D9">
-        <v>-0.01420632491598705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04378855059605309</v>
+      </c>
+      <c r="E9">
+        <v>-0.05891676788397038</v>
+      </c>
+      <c r="F9">
+        <v>0.08148563069118424</v>
+      </c>
+      <c r="G9">
+        <v>-0.02324297664893358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07732659767725956</v>
+        <v>0.0992209571353066</v>
       </c>
       <c r="C10">
-        <v>-0.1955315767214033</v>
+        <v>-0.1974764154194062</v>
       </c>
       <c r="D10">
-        <v>0.006836311436336205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004525587277340189</v>
+      </c>
+      <c r="E10">
+        <v>-0.04450086541782073</v>
+      </c>
+      <c r="F10">
+        <v>0.03843126788303775</v>
+      </c>
+      <c r="G10">
+        <v>-0.008530820936162037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04123396267013126</v>
+        <v>0.03679999967394394</v>
       </c>
       <c r="C11">
-        <v>0.05484590123082605</v>
+        <v>0.051143662157229</v>
       </c>
       <c r="D11">
-        <v>-0.01425365845221204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03453276654330389</v>
+      </c>
+      <c r="E11">
+        <v>-0.01736778773211657</v>
+      </c>
+      <c r="F11">
+        <v>0.06505836072651934</v>
+      </c>
+      <c r="G11">
+        <v>-0.01508537886319468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04074872320734937</v>
+        <v>0.03755382255778515</v>
       </c>
       <c r="C12">
-        <v>0.0484791305500361</v>
+        <v>0.04711267469387152</v>
       </c>
       <c r="D12">
-        <v>-0.003149102015936697</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02674634544315229</v>
+      </c>
+      <c r="E12">
+        <v>-0.0251230855143178</v>
+      </c>
+      <c r="F12">
+        <v>0.06384820032168061</v>
+      </c>
+      <c r="G12">
+        <v>-0.01176215372631912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01412916946664808</v>
+        <v>0.01250994492421331</v>
       </c>
       <c r="C13">
-        <v>0.05390375520319576</v>
+        <v>0.04638918592530127</v>
       </c>
       <c r="D13">
-        <v>-0.01731980223710477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05800412500084837</v>
+      </c>
+      <c r="E13">
+        <v>-0.0836782564478354</v>
+      </c>
+      <c r="F13">
+        <v>0.09257033264778454</v>
+      </c>
+      <c r="G13">
+        <v>-0.01998146410172272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007294759737785563</v>
+        <v>0.004721767939741238</v>
       </c>
       <c r="C14">
-        <v>0.03708134972337255</v>
+        <v>0.03343185422212341</v>
       </c>
       <c r="D14">
-        <v>0.01400734902885949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02596434110797537</v>
+      </c>
+      <c r="E14">
+        <v>-0.03738960462363731</v>
+      </c>
+      <c r="F14">
+        <v>0.09122851016887865</v>
+      </c>
+      <c r="G14">
+        <v>0.006065955881770327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0004209821402629699</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005022986616315431</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.006934240623419702</v>
+      </c>
+      <c r="E15">
+        <v>-0.002710756218082784</v>
+      </c>
+      <c r="F15">
+        <v>0.005589171379015573</v>
+      </c>
+      <c r="G15">
+        <v>0.0001253399441601184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03745106837185455</v>
+        <v>0.03438371686837789</v>
       </c>
       <c r="C16">
-        <v>0.04716944491405187</v>
+        <v>0.04545729213882424</v>
       </c>
       <c r="D16">
-        <v>-0.00855270711896829</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02755244559185691</v>
+      </c>
+      <c r="E16">
+        <v>-0.03199063813254552</v>
+      </c>
+      <c r="F16">
+        <v>0.06461343864269387</v>
+      </c>
+      <c r="G16">
+        <v>-0.0008030412452332328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02163951409145091</v>
+        <v>0.01673017773557366</v>
       </c>
       <c r="C19">
-        <v>0.06031027225635247</v>
+        <v>0.04975781511444075</v>
       </c>
       <c r="D19">
-        <v>-0.07871248718595507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09022419350340162</v>
+      </c>
+      <c r="E19">
+        <v>-0.09864748476155774</v>
+      </c>
+      <c r="F19">
+        <v>0.06707441164760819</v>
+      </c>
+      <c r="G19">
+        <v>0.0262758516392788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0170150849859405</v>
+        <v>0.01394240687465549</v>
       </c>
       <c r="C20">
-        <v>0.04788658614088522</v>
+        <v>0.04127025970671522</v>
       </c>
       <c r="D20">
-        <v>-0.01421698096021148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04027638381778927</v>
+      </c>
+      <c r="E20">
+        <v>-0.0689322516960599</v>
+      </c>
+      <c r="F20">
+        <v>0.07575825947042084</v>
+      </c>
+      <c r="G20">
+        <v>-0.005268862250308268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01139048751747812</v>
+        <v>0.009675592742338581</v>
       </c>
       <c r="C21">
-        <v>0.04980952174862294</v>
+        <v>0.04590367805974614</v>
       </c>
       <c r="D21">
-        <v>-0.03734597815043433</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06868662416262819</v>
+      </c>
+      <c r="E21">
+        <v>-0.1009917643362121</v>
+      </c>
+      <c r="F21">
+        <v>0.1158576740731049</v>
+      </c>
+      <c r="G21">
+        <v>-0.005054689697709449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0003226011454766167</v>
+        <v>0.002378724835724447</v>
       </c>
       <c r="C22">
-        <v>0.000194659256248604</v>
+        <v>0.02438775580615679</v>
       </c>
       <c r="D22">
-        <v>-0.0006554669430158218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03868009700924091</v>
+      </c>
+      <c r="E22">
+        <v>-0.03093730612037869</v>
+      </c>
+      <c r="F22">
+        <v>0.01199951259921726</v>
+      </c>
+      <c r="G22">
+        <v>-0.03948156313957945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0003226011454766167</v>
+        <v>0.002449360792683483</v>
       </c>
       <c r="C23">
-        <v>0.000194659256248604</v>
+        <v>0.02453188893173699</v>
       </c>
       <c r="D23">
-        <v>-0.0006554669430158218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03834552328345498</v>
+      </c>
+      <c r="E23">
+        <v>-0.03121682013481187</v>
+      </c>
+      <c r="F23">
+        <v>0.01180035804204135</v>
+      </c>
+      <c r="G23">
+        <v>-0.03968800262468759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03382109384929057</v>
+        <v>0.03408777440760187</v>
       </c>
       <c r="C24">
-        <v>0.050904357166266</v>
+        <v>0.05347514638553866</v>
       </c>
       <c r="D24">
-        <v>-0.007472423996254546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02770032723253749</v>
+      </c>
+      <c r="E24">
+        <v>-0.02945009581955389</v>
+      </c>
+      <c r="F24">
+        <v>0.07369795436615993</v>
+      </c>
+      <c r="G24">
+        <v>-0.009047032869984456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04759758677025294</v>
+        <v>0.04418303918906737</v>
       </c>
       <c r="C25">
-        <v>0.06148361869397947</v>
+        <v>0.05731080929928747</v>
       </c>
       <c r="D25">
-        <v>0.000779059896700739</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02598223803378385</v>
+      </c>
+      <c r="E25">
+        <v>-0.02392327660327367</v>
+      </c>
+      <c r="F25">
+        <v>0.07553334576362106</v>
+      </c>
+      <c r="G25">
+        <v>-0.02570222239091214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01472353209510724</v>
+        <v>0.01405090359752335</v>
       </c>
       <c r="C26">
-        <v>0.01691917649121896</v>
+        <v>0.01802505727440636</v>
       </c>
       <c r="D26">
-        <v>0.001033852723153935</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02459301567189672</v>
+      </c>
+      <c r="E26">
+        <v>-0.04078220720250323</v>
+      </c>
+      <c r="F26">
+        <v>0.06417309688765996</v>
+      </c>
+      <c r="G26">
+        <v>0.01379061376470751</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09343435964317659</v>
+        <v>0.1341996057882075</v>
       </c>
       <c r="C28">
-        <v>-0.2371955517163547</v>
+        <v>-0.2469449140018521</v>
       </c>
       <c r="D28">
-        <v>0.005326244492529663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01707753012534783</v>
+      </c>
+      <c r="E28">
+        <v>-0.056159521437657</v>
+      </c>
+      <c r="F28">
+        <v>0.05466240816753935</v>
+      </c>
+      <c r="G28">
+        <v>-0.01948756739736941</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007329844612306254</v>
+        <v>0.005915015890159417</v>
       </c>
       <c r="C29">
-        <v>0.02997245849900326</v>
+        <v>0.02902253710454866</v>
       </c>
       <c r="D29">
-        <v>0.01790923013339212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02004269200314009</v>
+      </c>
+      <c r="E29">
+        <v>-0.03805871145782711</v>
+      </c>
+      <c r="F29">
+        <v>0.08541715522909268</v>
+      </c>
+      <c r="G29">
+        <v>-0.007604800919761508</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04826647815764056</v>
+        <v>0.04282371994094956</v>
       </c>
       <c r="C30">
-        <v>0.06378521158841347</v>
+        <v>0.06506295923263163</v>
       </c>
       <c r="D30">
-        <v>-0.07670046240278006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.109872463934265</v>
+      </c>
+      <c r="E30">
+        <v>-0.06269151589168243</v>
+      </c>
+      <c r="F30">
+        <v>0.08376848781932593</v>
+      </c>
+      <c r="G30">
+        <v>0.01421735136361912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05395313679384065</v>
+        <v>0.05538815297995642</v>
       </c>
       <c r="C31">
-        <v>0.03640766918611589</v>
+        <v>0.05631445333282559</v>
       </c>
       <c r="D31">
-        <v>0.03065159149887565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01242015532240073</v>
+      </c>
+      <c r="E31">
+        <v>-0.06305807052282628</v>
+      </c>
+      <c r="F31">
+        <v>0.06836088416472838</v>
+      </c>
+      <c r="G31">
+        <v>-0.04589812622037642</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001665950675612384</v>
+        <v>0.004758151909524994</v>
       </c>
       <c r="C32">
-        <v>0.03763686943824741</v>
+        <v>0.03508768915482396</v>
       </c>
       <c r="D32">
-        <v>-0.0410502339399182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0538965299831984</v>
+      </c>
+      <c r="E32">
+        <v>-0.04265667090503926</v>
+      </c>
+      <c r="F32">
+        <v>0.06464004860251579</v>
+      </c>
+      <c r="G32">
+        <v>0.01050848634275524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02826079637371954</v>
+        <v>0.02505090728756589</v>
       </c>
       <c r="C33">
-        <v>0.05850595443835577</v>
+        <v>0.0547870840111385</v>
       </c>
       <c r="D33">
-        <v>-0.04535632723781635</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08049038039298403</v>
+      </c>
+      <c r="E33">
+        <v>-0.07398072173073095</v>
+      </c>
+      <c r="F33">
+        <v>0.1142821813653538</v>
+      </c>
+      <c r="G33">
+        <v>-0.01973254303537033</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04579778210914368</v>
+        <v>0.04153040190179255</v>
       </c>
       <c r="C34">
-        <v>0.06607840945548958</v>
+        <v>0.06433649061983623</v>
       </c>
       <c r="D34">
-        <v>-0.01132571222868189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03490624886147134</v>
+      </c>
+      <c r="E34">
+        <v>-0.004104060284965736</v>
+      </c>
+      <c r="F34">
+        <v>0.07557891130363324</v>
+      </c>
+      <c r="G34">
+        <v>-0.01089897683719666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01413131266677839</v>
+        <v>0.01312027240582235</v>
       </c>
       <c r="C36">
-        <v>0.01430894695907432</v>
+        <v>0.01327426785571162</v>
       </c>
       <c r="D36">
-        <v>0.003753545345739816</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02706608948811161</v>
+      </c>
+      <c r="E36">
+        <v>-0.04753695246172823</v>
+      </c>
+      <c r="F36">
+        <v>0.07131583251608857</v>
+      </c>
+      <c r="G36">
+        <v>-0.00860968567544416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03154375973447997</v>
+        <v>0.02494223393608055</v>
       </c>
       <c r="C38">
-        <v>0.02794783307677208</v>
+        <v>0.02370777287196423</v>
       </c>
       <c r="D38">
-        <v>0.006161100235371446</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02679056100615966</v>
+      </c>
+      <c r="E38">
+        <v>-0.0457589884678936</v>
+      </c>
+      <c r="F38">
+        <v>0.05842180337381537</v>
+      </c>
+      <c r="G38">
+        <v>-0.002489787077454878</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04570190476474342</v>
+        <v>0.04018953720910181</v>
       </c>
       <c r="C39">
-        <v>0.06995049102147502</v>
+        <v>0.06820055300601309</v>
       </c>
       <c r="D39">
-        <v>-0.01943437531902719</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05503658450935324</v>
+      </c>
+      <c r="E39">
+        <v>-0.03410425013108435</v>
+      </c>
+      <c r="F39">
+        <v>0.08446385488701438</v>
+      </c>
+      <c r="G39">
+        <v>0.01376363655534567</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01346155472655307</v>
+        <v>0.01421394745730578</v>
       </c>
       <c r="C40">
-        <v>0.05272868564988756</v>
+        <v>0.03975044110187883</v>
       </c>
       <c r="D40">
-        <v>-0.02132086803692954</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03746732575904542</v>
+      </c>
+      <c r="E40">
+        <v>-0.07459983590515339</v>
+      </c>
+      <c r="F40">
+        <v>0.06908348710961554</v>
+      </c>
+      <c r="G40">
+        <v>-0.03961697521688737</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01944879397406921</v>
+        <v>0.01799474994507201</v>
       </c>
       <c r="C41">
-        <v>0.003836651194978963</v>
+        <v>0.007706812988348624</v>
       </c>
       <c r="D41">
-        <v>0.00390190818718475</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01443443956953212</v>
+      </c>
+      <c r="E41">
+        <v>-0.05027295368503172</v>
+      </c>
+      <c r="F41">
+        <v>0.05952124377935641</v>
+      </c>
+      <c r="G41">
+        <v>-0.001446553597821343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03658886992403634</v>
+        <v>0.02861157217764155</v>
       </c>
       <c r="C43">
-        <v>0.02215593502827766</v>
+        <v>0.02203024174314705</v>
       </c>
       <c r="D43">
-        <v>-0.01962489335661879</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04009648413809602</v>
+      </c>
+      <c r="E43">
+        <v>-0.06121898506406635</v>
+      </c>
+      <c r="F43">
+        <v>0.06934614106704112</v>
+      </c>
+      <c r="G43">
+        <v>-0.02154676701061316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01382425861418835</v>
+        <v>0.01507748007626585</v>
       </c>
       <c r="C44">
-        <v>0.06527838556863234</v>
+        <v>0.05154178266286476</v>
       </c>
       <c r="D44">
-        <v>-0.01543681756630907</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04274536409734134</v>
+      </c>
+      <c r="E44">
+        <v>-0.08043326551772507</v>
+      </c>
+      <c r="F44">
+        <v>0.07204331287272668</v>
+      </c>
+      <c r="G44">
+        <v>0.006866166252776016</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.005594666197569722</v>
+        <v>0.007760493872146445</v>
       </c>
       <c r="C46">
-        <v>0.02097952051762947</v>
+        <v>0.02652910665583869</v>
       </c>
       <c r="D46">
-        <v>0.02162070991981985</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01158208088731126</v>
+      </c>
+      <c r="E46">
+        <v>-0.04810813703686064</v>
+      </c>
+      <c r="F46">
+        <v>0.09731516857003375</v>
+      </c>
+      <c r="G46">
+        <v>0.0005202607449427254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08212079828627396</v>
+        <v>0.08747003093272622</v>
       </c>
       <c r="C47">
-        <v>0.06725828009220376</v>
+        <v>0.07933080154706991</v>
       </c>
       <c r="D47">
-        <v>0.02743376989593988</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01727229204936958</v>
+      </c>
+      <c r="E47">
+        <v>-0.06630904928947735</v>
+      </c>
+      <c r="F47">
+        <v>0.07266047574972224</v>
+      </c>
+      <c r="G47">
+        <v>-0.05041211739177313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01836063846998772</v>
+        <v>0.01561292195846882</v>
       </c>
       <c r="C48">
-        <v>0.01320176789843058</v>
+        <v>0.01737712984363175</v>
       </c>
       <c r="D48">
-        <v>0.01561308885034459</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01674299851809022</v>
+      </c>
+      <c r="E48">
+        <v>-0.05902188052912363</v>
+      </c>
+      <c r="F48">
+        <v>0.08709660928560413</v>
+      </c>
+      <c r="G48">
+        <v>-0.008093328854865717</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08045892921713763</v>
+        <v>0.07121383810441954</v>
       </c>
       <c r="C50">
-        <v>0.07297440361040711</v>
+        <v>0.07272421396316948</v>
       </c>
       <c r="D50">
-        <v>0.03120467845053177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.003811359955264688</v>
+      </c>
+      <c r="E50">
+        <v>-0.0686897041933659</v>
+      </c>
+      <c r="F50">
+        <v>0.0551101164866887</v>
+      </c>
+      <c r="G50">
+        <v>-0.06995249314401822</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0152113246883488</v>
+        <v>0.01101885228865199</v>
       </c>
       <c r="C51">
-        <v>0.0489390239069268</v>
+        <v>0.03351131438489355</v>
       </c>
       <c r="D51">
-        <v>-0.02438683453802983</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04980555078393547</v>
+      </c>
+      <c r="E51">
+        <v>-0.03817026141393378</v>
+      </c>
+      <c r="F51">
+        <v>0.07383692465415277</v>
+      </c>
+      <c r="G51">
+        <v>0.02125967014249937</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08057366240959921</v>
+        <v>0.09379674766535966</v>
       </c>
       <c r="C53">
-        <v>0.0769155019262993</v>
+        <v>0.08659808183812429</v>
       </c>
       <c r="D53">
-        <v>0.03936511193686012</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03995167453967789</v>
+      </c>
+      <c r="E53">
+        <v>-0.06330871982220559</v>
+      </c>
+      <c r="F53">
+        <v>0.0845709848465563</v>
+      </c>
+      <c r="G53">
+        <v>-0.06376684856568039</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02989136016848826</v>
+        <v>0.02761944978815679</v>
       </c>
       <c r="C54">
-        <v>0.02574528765961945</v>
+        <v>0.02714199025104978</v>
       </c>
       <c r="D54">
-        <v>0.000426829869572278</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02947931795245961</v>
+      </c>
+      <c r="E54">
+        <v>-0.04720630203624803</v>
+      </c>
+      <c r="F54">
+        <v>0.09526155855117641</v>
+      </c>
+      <c r="G54">
+        <v>-0.007986540558698524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07468114552514021</v>
+        <v>0.0851068303934233</v>
       </c>
       <c r="C55">
-        <v>0.05792508637733282</v>
+        <v>0.0696294689923917</v>
       </c>
       <c r="D55">
-        <v>0.04813614940867366</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04765789081227721</v>
+      </c>
+      <c r="E55">
+        <v>-0.04880442090337026</v>
+      </c>
+      <c r="F55">
+        <v>0.05904187394170587</v>
+      </c>
+      <c r="G55">
+        <v>-0.05149080502556434</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1443498139153201</v>
+        <v>0.1473883164529901</v>
       </c>
       <c r="C56">
-        <v>0.09313723615330248</v>
+        <v>0.1044471755168556</v>
       </c>
       <c r="D56">
-        <v>0.04543268527791413</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04919400110113662</v>
+      </c>
+      <c r="E56">
+        <v>-0.05204044537175255</v>
+      </c>
+      <c r="F56">
+        <v>0.04427707830256441</v>
+      </c>
+      <c r="G56">
+        <v>-0.05941608834721443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.001807698867983161</v>
+        <v>0.0009333668584848713</v>
       </c>
       <c r="C57">
-        <v>-0.001397676700654608</v>
+        <v>-0.0005281376136973639</v>
       </c>
       <c r="D57">
-        <v>-0.01427288051885921</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01152256274119311</v>
+      </c>
+      <c r="E57">
+        <v>-0.008276761038226395</v>
+      </c>
+      <c r="F57">
+        <v>0.007197573287286429</v>
+      </c>
+      <c r="G57">
+        <v>-8.298819322013612e-05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05099830987289738</v>
+        <v>0.03009227709315665</v>
       </c>
       <c r="C58">
-        <v>0.03049143228750772</v>
+        <v>0.03213469000525578</v>
       </c>
       <c r="D58">
-        <v>-0.695016659891861</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4102726922680722</v>
+      </c>
+      <c r="E58">
+        <v>-0.6494749191589525</v>
+      </c>
+      <c r="F58">
+        <v>-0.5579938241094566</v>
+      </c>
+      <c r="G58">
+        <v>0.06956431176634655</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.133952703701442</v>
+        <v>0.1442226910879993</v>
       </c>
       <c r="C59">
-        <v>-0.1951900855639419</v>
+        <v>-0.1873951922968475</v>
       </c>
       <c r="D59">
-        <v>-0.02120915944915094</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03058494068882336</v>
+      </c>
+      <c r="E59">
+        <v>-0.02675105266880222</v>
+      </c>
+      <c r="F59">
+        <v>0.0196508112505562</v>
+      </c>
+      <c r="G59">
+        <v>0.0304423658536841</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3087071469506154</v>
+        <v>0.2826883972574896</v>
       </c>
       <c r="C60">
-        <v>0.09517585316164058</v>
+        <v>0.0991577497295057</v>
       </c>
       <c r="D60">
-        <v>-0.1315075336742371</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2182571158253693</v>
+      </c>
+      <c r="E60">
+        <v>0.2684811228633814</v>
+      </c>
+      <c r="F60">
+        <v>-0.09224246922512515</v>
+      </c>
+      <c r="G60">
+        <v>-0.04886996777786636</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04307157830406075</v>
+        <v>0.04130708638645579</v>
       </c>
       <c r="C61">
-        <v>0.0655124942105318</v>
+        <v>0.06284261881845654</v>
       </c>
       <c r="D61">
-        <v>-0.01401610680716481</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04622372388855207</v>
+      </c>
+      <c r="E61">
+        <v>-0.03811054811112115</v>
+      </c>
+      <c r="F61">
+        <v>0.07510466532511373</v>
+      </c>
+      <c r="G61">
+        <v>-0.01242409496141571</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01598030536786274</v>
+        <v>0.01535792855075956</v>
       </c>
       <c r="C63">
-        <v>0.03388658629092579</v>
+        <v>0.03243488088608305</v>
       </c>
       <c r="D63">
-        <v>0.009692965593327855</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02223520054848957</v>
+      </c>
+      <c r="E63">
+        <v>-0.05086366170795602</v>
+      </c>
+      <c r="F63">
+        <v>0.06772280586504609</v>
+      </c>
+      <c r="G63">
+        <v>-0.02800221916887837</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04891694340377314</v>
+        <v>0.05610083989358235</v>
       </c>
       <c r="C64">
-        <v>0.04187595565802116</v>
+        <v>0.05486365448487236</v>
       </c>
       <c r="D64">
-        <v>-0.001657539832083477</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008021391833419244</v>
+      </c>
+      <c r="E64">
+        <v>-0.03429395401286343</v>
+      </c>
+      <c r="F64">
+        <v>0.0846535818911668</v>
+      </c>
+      <c r="G64">
+        <v>-0.009647118877798367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08786128778260806</v>
+        <v>0.07019435368994112</v>
       </c>
       <c r="C65">
-        <v>0.03356673623006814</v>
+        <v>0.03319770884040636</v>
       </c>
       <c r="D65">
-        <v>-0.0522840245937383</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08682187868224168</v>
+      </c>
+      <c r="E65">
+        <v>-0.03884720441221535</v>
+      </c>
+      <c r="F65">
+        <v>0.004113639700062179</v>
+      </c>
+      <c r="G65">
+        <v>-0.002659799916986079</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.0634631956787306</v>
+        <v>0.05292447969645529</v>
       </c>
       <c r="C66">
-        <v>0.1003136777208055</v>
+        <v>0.09023207200208672</v>
       </c>
       <c r="D66">
-        <v>-0.04242190755688474</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08225606395262336</v>
+      </c>
+      <c r="E66">
+        <v>-0.04019659668988361</v>
+      </c>
+      <c r="F66">
+        <v>0.08576186821959812</v>
+      </c>
+      <c r="G66">
+        <v>-0.004029495576431223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05344691641800167</v>
+        <v>0.04681845612757489</v>
       </c>
       <c r="C67">
-        <v>0.0331485617534585</v>
+        <v>0.03031753436015347</v>
       </c>
       <c r="D67">
-        <v>0.008178778576457412</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01326790303480875</v>
+      </c>
+      <c r="E67">
+        <v>-0.02553300188818055</v>
+      </c>
+      <c r="F67">
+        <v>0.04828168941838885</v>
+      </c>
+      <c r="G67">
+        <v>-0.009250124680253597</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.126981350792829</v>
+        <v>0.1490832471573881</v>
       </c>
       <c r="C68">
-        <v>-0.2862482614051646</v>
+        <v>-0.2509570426446554</v>
       </c>
       <c r="D68">
-        <v>0.01450152558577225</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01846219468203821</v>
+      </c>
+      <c r="E68">
+        <v>-0.04283195852910543</v>
+      </c>
+      <c r="F68">
+        <v>0.01311627848166842</v>
+      </c>
+      <c r="G68">
+        <v>-0.009976149694397611</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08962755594163077</v>
+        <v>0.08722504831036354</v>
       </c>
       <c r="C69">
-        <v>0.06601219154400068</v>
+        <v>0.08621340024399303</v>
       </c>
       <c r="D69">
-        <v>0.03874435774336162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00881512481047785</v>
+      </c>
+      <c r="E69">
+        <v>-0.04944664050200159</v>
+      </c>
+      <c r="F69">
+        <v>0.08995131878711356</v>
+      </c>
+      <c r="G69">
+        <v>-0.0280810507574465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1181437250812259</v>
+        <v>0.1420163706075748</v>
       </c>
       <c r="C71">
-        <v>-0.2489548514097212</v>
+        <v>-0.2359975943310684</v>
       </c>
       <c r="D71">
-        <v>-0.02315121379968057</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01388341590372724</v>
+      </c>
+      <c r="E71">
+        <v>-0.06214276719719491</v>
+      </c>
+      <c r="F71">
+        <v>0.05439168124147406</v>
+      </c>
+      <c r="G71">
+        <v>-0.03687818265084476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.088133486674319</v>
+        <v>0.09813212181341728</v>
       </c>
       <c r="C72">
-        <v>0.05252518065348231</v>
+        <v>0.0568283408991657</v>
       </c>
       <c r="D72">
-        <v>-0.004664170156606908</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02786979473140338</v>
+      </c>
+      <c r="E72">
+        <v>-0.01578333221163493</v>
+      </c>
+      <c r="F72">
+        <v>0.07094093950595576</v>
+      </c>
+      <c r="G72">
+        <v>-0.034186712934479</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4111250417450665</v>
+        <v>0.3477268094189705</v>
       </c>
       <c r="C73">
-        <v>0.06985673419411674</v>
+        <v>0.07881822052340418</v>
       </c>
       <c r="D73">
-        <v>-0.3494622148023154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4612840328052248</v>
+      </c>
+      <c r="E73">
+        <v>0.4808065825902034</v>
+      </c>
+      <c r="F73">
+        <v>-0.2454429482912428</v>
+      </c>
+      <c r="G73">
+        <v>-0.1052322742335915</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1079519161411859</v>
+        <v>0.1112721787123056</v>
       </c>
       <c r="C74">
-        <v>0.09754838982806831</v>
+        <v>0.09735934877124908</v>
       </c>
       <c r="D74">
-        <v>0.02306790354694702</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03102561835365986</v>
+      </c>
+      <c r="E74">
+        <v>-0.0650062603481797</v>
+      </c>
+      <c r="F74">
+        <v>0.04799651588883835</v>
+      </c>
+      <c r="G74">
+        <v>-0.07425502484458518</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.25294130847702</v>
+        <v>0.2576969471754053</v>
       </c>
       <c r="C75">
-        <v>0.104740658712922</v>
+        <v>0.1294657844627025</v>
       </c>
       <c r="D75">
-        <v>0.08919017410235733</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1276598367034598</v>
+      </c>
+      <c r="E75">
+        <v>-0.06985524242561691</v>
+      </c>
+      <c r="F75">
+        <v>0.01716200999296333</v>
+      </c>
+      <c r="G75">
+        <v>-0.07550293016309484</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1127688236424494</v>
+        <v>0.1278700830089108</v>
       </c>
       <c r="C76">
-        <v>0.08998213021175865</v>
+        <v>0.0990255585909505</v>
       </c>
       <c r="D76">
-        <v>0.0458445676383209</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05757069084908802</v>
+      </c>
+      <c r="E76">
+        <v>-0.07772130680147429</v>
+      </c>
+      <c r="F76">
+        <v>0.06925147153229592</v>
+      </c>
+      <c r="G76">
+        <v>-0.0582313553533062</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07810149449394015</v>
+        <v>0.06356046646779377</v>
       </c>
       <c r="C77">
-        <v>0.06215478932204615</v>
+        <v>0.07431878240393079</v>
       </c>
       <c r="D77">
-        <v>-0.05544278721824293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06434917438594932</v>
+      </c>
+      <c r="E77">
+        <v>-0.09544190091550489</v>
+      </c>
+      <c r="F77">
+        <v>0.1075524194198706</v>
+      </c>
+      <c r="G77">
+        <v>0.1333156286817613</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04748442860237118</v>
+        <v>0.04396199084445315</v>
       </c>
       <c r="C78">
-        <v>0.05224232654468934</v>
+        <v>0.0604942804501624</v>
       </c>
       <c r="D78">
-        <v>-0.02659226065286189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06653924558777141</v>
+      </c>
+      <c r="E78">
+        <v>-0.04540200622116381</v>
+      </c>
+      <c r="F78">
+        <v>0.0840423841115667</v>
+      </c>
+      <c r="G78">
+        <v>-0.005495647919467082</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02658736556950873</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03901069811289315</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06105909908513168</v>
+      </c>
+      <c r="E79">
+        <v>-0.06072779621159907</v>
+      </c>
+      <c r="F79">
+        <v>0.03436015071197366</v>
+      </c>
+      <c r="G79">
+        <v>-0.06837909615275943</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04546542078255445</v>
+        <v>0.03450149755953694</v>
       </c>
       <c r="C80">
-        <v>0.0548901181075238</v>
+        <v>0.0555656477989652</v>
       </c>
       <c r="D80">
-        <v>-0.03093752859054244</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04450717333896912</v>
+      </c>
+      <c r="E80">
+        <v>-0.01670165335353869</v>
+      </c>
+      <c r="F80">
+        <v>0.03135250263877427</v>
+      </c>
+      <c r="G80">
+        <v>0.04736128827592648</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1399253698910854</v>
+        <v>0.1407326378932284</v>
       </c>
       <c r="C81">
-        <v>0.07919715653493013</v>
+        <v>0.09376551114098852</v>
       </c>
       <c r="D81">
-        <v>0.06917697916093007</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1002776169943788</v>
+      </c>
+      <c r="E81">
+        <v>-0.0858494055928101</v>
+      </c>
+      <c r="F81">
+        <v>0.01008942851285494</v>
+      </c>
+      <c r="G81">
+        <v>-0.05123525083080756</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1589932900421883</v>
+        <v>0.2030055105872504</v>
       </c>
       <c r="C82">
-        <v>0.07390242386844534</v>
+        <v>0.1377267782667256</v>
       </c>
       <c r="D82">
-        <v>0.1573852379783196</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.235238951792103</v>
+      </c>
+      <c r="E82">
+        <v>-0.007478425564253561</v>
+      </c>
+      <c r="F82">
+        <v>0.1026035314537348</v>
+      </c>
+      <c r="G82">
+        <v>-0.04905259526372924</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04112999526525152</v>
+        <v>0.02821505443564346</v>
       </c>
       <c r="C83">
-        <v>0.02723615487969784</v>
+        <v>0.04248473739012671</v>
       </c>
       <c r="D83">
-        <v>-0.03185718107456762</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03401968444508539</v>
+      </c>
+      <c r="E83">
+        <v>-0.02062930159946938</v>
+      </c>
+      <c r="F83">
+        <v>0.03887595905340848</v>
+      </c>
+      <c r="G83">
+        <v>0.02192154420982992</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2.032440002082781e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.0001021836711830149</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0002043110634977457</v>
+      </c>
+      <c r="E84">
+        <v>-0.0001131556877623802</v>
+      </c>
+      <c r="F84">
+        <v>0.0007446714358809599</v>
+      </c>
+      <c r="G84">
+        <v>-0.0004354705997530681</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2188524669768595</v>
+        <v>0.2036760373942453</v>
       </c>
       <c r="C85">
-        <v>0.1046100055008913</v>
+        <v>0.1164975566931152</v>
       </c>
       <c r="D85">
-        <v>0.1140024088647095</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09747403662436287</v>
+      </c>
+      <c r="E85">
+        <v>0.001917779130260806</v>
+      </c>
+      <c r="F85">
+        <v>-0.005370981279650671</v>
+      </c>
+      <c r="G85">
+        <v>-0.1273275636759787</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.0101222818155235</v>
+        <v>0.01067711295619381</v>
       </c>
       <c r="C86">
-        <v>0.04174751764002319</v>
+        <v>0.03231205251242431</v>
       </c>
       <c r="D86">
-        <v>-0.0412542426849808</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06566317007666254</v>
+      </c>
+      <c r="E86">
+        <v>-0.06482390173843794</v>
+      </c>
+      <c r="F86">
+        <v>0.1224703561257856</v>
+      </c>
+      <c r="G86">
+        <v>0.01485825739260048</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02410637009348464</v>
+        <v>0.02283203976668197</v>
       </c>
       <c r="C87">
-        <v>0.01235927758752362</v>
+        <v>0.02083677881505469</v>
       </c>
       <c r="D87">
-        <v>-0.09346935823295713</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09101830720245543</v>
+      </c>
+      <c r="E87">
+        <v>-0.1128691191388609</v>
+      </c>
+      <c r="F87">
+        <v>0.06446736045436921</v>
+      </c>
+      <c r="G87">
+        <v>0.0404304560414848</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1051894662863233</v>
+        <v>0.09288977870556502</v>
       </c>
       <c r="C88">
-        <v>0.06749900547605384</v>
+        <v>0.062445137158524</v>
       </c>
       <c r="D88">
-        <v>0.0288011251009023</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.005298272205506087</v>
+      </c>
+      <c r="E88">
+        <v>-0.04477369104080031</v>
+      </c>
+      <c r="F88">
+        <v>0.06924350554234811</v>
+      </c>
+      <c r="G88">
+        <v>0.02681254556368641</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.18469188496418</v>
+        <v>0.2187619960108894</v>
       </c>
       <c r="C89">
-        <v>-0.3783105296184013</v>
+        <v>-0.3801262851256809</v>
       </c>
       <c r="D89">
-        <v>0.01980825819814508</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.005409865268785472</v>
+      </c>
+      <c r="E89">
+        <v>-0.06161252628553366</v>
+      </c>
+      <c r="F89">
+        <v>0.07614244600031776</v>
+      </c>
+      <c r="G89">
+        <v>0.06370139493427014</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1778129712622948</v>
+        <v>0.1987338635821606</v>
       </c>
       <c r="C90">
-        <v>-0.339434670690145</v>
+        <v>-0.315159030345662</v>
       </c>
       <c r="D90">
-        <v>0.01899835295400381</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01277434927293109</v>
+      </c>
+      <c r="E90">
+        <v>-0.07155268407332427</v>
+      </c>
+      <c r="F90">
+        <v>0.04189645057531891</v>
+      </c>
+      <c r="G90">
+        <v>0.01260446138693554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1891024361732609</v>
+        <v>0.1859924047218003</v>
       </c>
       <c r="C91">
-        <v>0.1265039061122716</v>
+        <v>0.1398364576479882</v>
       </c>
       <c r="D91">
-        <v>0.08670884820361158</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1082210777064395</v>
+      </c>
+      <c r="E91">
+        <v>-0.06246732289812629</v>
+      </c>
+      <c r="F91">
+        <v>0.0361070406259457</v>
+      </c>
+      <c r="G91">
+        <v>-0.058743739871462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1642020231621549</v>
+        <v>0.180567471217973</v>
       </c>
       <c r="C92">
-        <v>-0.2835510312839453</v>
+        <v>-0.2862406747186569</v>
       </c>
       <c r="D92">
-        <v>-0.0006358619613657401</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.004737947258304941</v>
+      </c>
+      <c r="E92">
+        <v>-0.07096443398818893</v>
+      </c>
+      <c r="F92">
+        <v>0.08434506498090795</v>
+      </c>
+      <c r="G92">
+        <v>0.009381189096401402</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.201775510383983</v>
+        <v>0.2223594882516948</v>
       </c>
       <c r="C93">
-        <v>-0.3387459297138671</v>
+        <v>-0.3190809998920787</v>
       </c>
       <c r="D93">
-        <v>0.01425320849560452</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004307651609523397</v>
+      </c>
+      <c r="E93">
+        <v>-0.04656867627583644</v>
+      </c>
+      <c r="F93">
+        <v>0.04105855498587925</v>
+      </c>
+      <c r="G93">
+        <v>-0.02738516176360791</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3389586333604914</v>
+        <v>0.3441354316441172</v>
       </c>
       <c r="C94">
-        <v>0.1421277729986566</v>
+        <v>0.1772779370151284</v>
       </c>
       <c r="D94">
-        <v>0.4592616490662965</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.5070815059841339</v>
+      </c>
+      <c r="E94">
+        <v>-0.03975588998941482</v>
+      </c>
+      <c r="F94">
+        <v>-0.4496225420959878</v>
+      </c>
+      <c r="G94">
+        <v>0.328698798174227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1101976479907545</v>
+        <v>0.08529118586332587</v>
       </c>
       <c r="C95">
-        <v>0.08067779421152696</v>
+        <v>0.06818983722150303</v>
       </c>
       <c r="D95">
-        <v>-0.1322486682777257</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1694936339094333</v>
+      </c>
+      <c r="E95">
+        <v>0.1064475424838268</v>
+      </c>
+      <c r="F95">
+        <v>0.2229447888677805</v>
+      </c>
+      <c r="G95">
+        <v>0.8666082374124112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.197509161301327</v>
+        <v>0.1885633770943317</v>
       </c>
       <c r="C98">
-        <v>0.01992168789644325</v>
+        <v>0.04076219312960876</v>
       </c>
       <c r="D98">
-        <v>-0.1323308149124243</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1844147098229015</v>
+      </c>
+      <c r="E98">
+        <v>0.1533039173674813</v>
+      </c>
+      <c r="F98">
+        <v>-0.03398303346672284</v>
+      </c>
+      <c r="G98">
+        <v>-0.09774304593963305</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007272412180541247</v>
+        <v>0.005966075441463925</v>
       </c>
       <c r="C101">
-        <v>0.02998224067583337</v>
+        <v>0.0287632445519065</v>
       </c>
       <c r="D101">
-        <v>0.01851122229235065</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.019508520123839</v>
+      </c>
+      <c r="E101">
+        <v>-0.03871592018610229</v>
+      </c>
+      <c r="F101">
+        <v>0.08510895957886287</v>
+      </c>
+      <c r="G101">
+        <v>-0.006521193468117601</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1220556150091323</v>
+        <v>0.1248745296708005</v>
       </c>
       <c r="C102">
-        <v>0.07264727917294081</v>
+        <v>0.09739387711357757</v>
       </c>
       <c r="D102">
-        <v>0.02737869331511908</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04626307651804421</v>
+      </c>
+      <c r="E102">
+        <v>0.00165003858644182</v>
+      </c>
+      <c r="F102">
+        <v>0.04533233568603211</v>
+      </c>
+      <c r="G102">
+        <v>-0.01841634578265872</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
